--- a/Code/Results/Cases/Case_1_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.041582667654609</v>
+        <v>1.073995936115403</v>
       </c>
       <c r="D2">
-        <v>1.058772443749599</v>
+        <v>1.070272582048248</v>
       </c>
       <c r="E2">
-        <v>1.05155659309597</v>
+        <v>1.076876138636622</v>
       </c>
       <c r="F2">
-        <v>1.062348146878604</v>
+        <v>1.084835956931483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069127002070167</v>
+        <v>1.059198335520961</v>
       </c>
       <c r="J2">
-        <v>1.062586999832069</v>
+        <v>1.078907638513878</v>
       </c>
       <c r="K2">
-        <v>1.069469489984844</v>
+        <v>1.072972861239862</v>
       </c>
       <c r="L2">
-        <v>1.062341519071573</v>
+        <v>1.079558917116555</v>
       </c>
       <c r="M2">
-        <v>1.073002194476084</v>
+        <v>1.087497946080979</v>
       </c>
       <c r="N2">
-        <v>1.064095995252263</v>
+        <v>1.080439811113003</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.048473290429184</v>
+        <v>1.075387383630167</v>
       </c>
       <c r="D3">
-        <v>1.063253103908679</v>
+        <v>1.071169776382003</v>
       </c>
       <c r="E3">
-        <v>1.05732601717995</v>
+        <v>1.078076691739842</v>
       </c>
       <c r="F3">
-        <v>1.068000378701376</v>
+        <v>1.086012962226143</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071760555551197</v>
+        <v>1.059637956305715</v>
       </c>
       <c r="J3">
-        <v>1.067724419627025</v>
+        <v>1.079955918929432</v>
       </c>
       <c r="K3">
-        <v>1.073135899009847</v>
+        <v>1.073686185543798</v>
       </c>
       <c r="L3">
-        <v>1.067274406379882</v>
+        <v>1.080576121590518</v>
       </c>
       <c r="M3">
-        <v>1.077831280932645</v>
+        <v>1.088493168866402</v>
       </c>
       <c r="N3">
-        <v>1.069240710772599</v>
+        <v>1.081489580206987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.05281302343654</v>
+        <v>1.076287080492588</v>
       </c>
       <c r="D4">
-        <v>1.066079164568966</v>
+        <v>1.071749751949517</v>
       </c>
       <c r="E4">
-        <v>1.060964567551157</v>
+        <v>1.078853072123655</v>
       </c>
       <c r="F4">
-        <v>1.071566721685329</v>
+        <v>1.086774237834576</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073408097619093</v>
+        <v>1.059920766994024</v>
       </c>
       <c r="J4">
-        <v>1.070955885863832</v>
+        <v>1.080633065001921</v>
       </c>
       <c r="K4">
-        <v>1.075440488133667</v>
+        <v>1.074146548587213</v>
       </c>
       <c r="L4">
-        <v>1.0703789359701</v>
+        <v>1.081233286973565</v>
       </c>
       <c r="M4">
-        <v>1.080871818430782</v>
+        <v>1.089136235643914</v>
       </c>
       <c r="N4">
-        <v>1.072476766062116</v>
+        <v>1.082167687904569</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.054610391516693</v>
+        <v>1.07666515860288</v>
       </c>
       <c r="D5">
-        <v>1.067250489296258</v>
+        <v>1.071993438808648</v>
       </c>
       <c r="E5">
-        <v>1.062472636122102</v>
+        <v>1.079179355655758</v>
       </c>
       <c r="F5">
-        <v>1.073045248475336</v>
+        <v>1.087094202586794</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07408773476011</v>
+        <v>1.060039266045107</v>
       </c>
       <c r="J5">
-        <v>1.072293210538088</v>
+        <v>1.08091746205031</v>
       </c>
       <c r="K5">
-        <v>1.076393796091899</v>
+        <v>1.074339798121822</v>
       </c>
       <c r="L5">
-        <v>1.071664123989175</v>
+        <v>1.081509314385537</v>
       </c>
       <c r="M5">
-        <v>1.082130818823464</v>
+        <v>1.089406365595682</v>
       </c>
       <c r="N5">
-        <v>1.073815989890803</v>
+        <v>1.082452488829387</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.054910630441221</v>
+        <v>1.076728630646252</v>
       </c>
       <c r="D6">
-        <v>1.067446199228151</v>
+        <v>1.072034347035971</v>
       </c>
       <c r="E6">
-        <v>1.062724612166362</v>
+        <v>1.079234133916215</v>
       </c>
       <c r="F6">
-        <v>1.073292310599237</v>
+        <v>1.087147921718549</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074201102292768</v>
+        <v>1.060059139456266</v>
       </c>
       <c r="J6">
-        <v>1.072516539584059</v>
+        <v>1.08096519751455</v>
       </c>
       <c r="K6">
-        <v>1.076552968656626</v>
+        <v>1.074372228777632</v>
       </c>
       <c r="L6">
-        <v>1.071878769178799</v>
+        <v>1.081555646316374</v>
       </c>
       <c r="M6">
-        <v>1.082341107655349</v>
+        <v>1.089451709042615</v>
       </c>
       <c r="N6">
-        <v>1.074039636089635</v>
+        <v>1.082500292083462</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.05283714446069</v>
+        <v>1.076292132992449</v>
       </c>
       <c r="D7">
-        <v>1.066094880696709</v>
+        <v>1.071753008633482</v>
       </c>
       <c r="E7">
-        <v>1.060984801849155</v>
+        <v>1.078857432356267</v>
       </c>
       <c r="F7">
-        <v>1.071586558112604</v>
+        <v>1.086778513512967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.073417229308796</v>
+        <v>1.059922351932949</v>
       </c>
       <c r="J7">
-        <v>1.070973837191331</v>
+        <v>1.080636866206799</v>
       </c>
       <c r="K7">
-        <v>1.075453286463746</v>
+        <v>1.07414913192315</v>
       </c>
       <c r="L7">
-        <v>1.0703961859071</v>
+        <v>1.08123697622446</v>
       </c>
       <c r="M7">
-        <v>1.080888715696406</v>
+        <v>1.089139845976793</v>
       </c>
       <c r="N7">
-        <v>1.072494742882559</v>
+        <v>1.082171494507594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.043936908536012</v>
+        <v>1.074466322073606</v>
       </c>
       <c r="D8">
-        <v>1.060302352644673</v>
+        <v>1.070575911760885</v>
       </c>
       <c r="E8">
-        <v>1.05352667195814</v>
+        <v>1.077281967650727</v>
       </c>
       <c r="F8">
-        <v>1.064277836187254</v>
+        <v>1.085233800240257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.07002907350573</v>
+        <v>1.059347250518186</v>
       </c>
       <c r="J8">
-        <v>1.064343071439352</v>
+        <v>1.07926215201903</v>
       </c>
       <c r="K8">
-        <v>1.070723048015453</v>
+        <v>1.07321418303896</v>
       </c>
       <c r="L8">
-        <v>1.064027305463736</v>
+        <v>1.079902901786248</v>
       </c>
       <c r="M8">
-        <v>1.074652215281367</v>
+        <v>1.087834475848692</v>
       </c>
       <c r="N8">
-        <v>1.065854560682653</v>
+        <v>1.080794828067995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027272518886778</v>
+        <v>1.071243745665187</v>
       </c>
       <c r="D9">
-        <v>1.049496243674873</v>
+        <v>1.068497294744742</v>
       </c>
       <c r="E9">
-        <v>1.039606556375372</v>
+        <v>1.0745021656434</v>
       </c>
       <c r="F9">
-        <v>1.050651401783594</v>
+        <v>1.082509216223612</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063598842763732</v>
+        <v>1.058321129145695</v>
       </c>
       <c r="J9">
-        <v>1.051897654314581</v>
+        <v>1.076830704674656</v>
       </c>
       <c r="K9">
-        <v>1.061834261896375</v>
+        <v>1.071557383224358</v>
       </c>
       <c r="L9">
-        <v>1.052088141637272</v>
+        <v>1.077544056256524</v>
       </c>
       <c r="M9">
-        <v>1.062972873910947</v>
+        <v>1.085527183397322</v>
       </c>
       <c r="N9">
-        <v>1.053391469638055</v>
+        <v>1.078359927789502</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01539498996585</v>
+        <v>1.069091556501673</v>
       </c>
       <c r="D10">
-        <v>1.041830766610627</v>
+        <v>1.067108486582854</v>
       </c>
       <c r="E10">
-        <v>1.029721589120299</v>
+        <v>1.072646343967482</v>
       </c>
       <c r="F10">
-        <v>1.04098682686213</v>
+        <v>1.080690923017359</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058961412739048</v>
+        <v>1.057628416291614</v>
       </c>
       <c r="J10">
-        <v>1.043010842288033</v>
+        <v>1.075203488046156</v>
       </c>
       <c r="K10">
-        <v>1.055483708248476</v>
+        <v>1.070446500042143</v>
       </c>
       <c r="L10">
-        <v>1.043574175226417</v>
+        <v>1.075965923790539</v>
       </c>
       <c r="M10">
-        <v>1.054653489123316</v>
+        <v>1.083984094112197</v>
       </c>
       <c r="N10">
-        <v>1.044492037319098</v>
+        <v>1.076730400326746</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.010041966816901</v>
+        <v>1.068158672746015</v>
       </c>
       <c r="D11">
-        <v>1.038387150396912</v>
+        <v>1.066506369782714</v>
       </c>
       <c r="E11">
-        <v>1.025276925840851</v>
+        <v>1.071842090794726</v>
       </c>
       <c r="F11">
-        <v>1.036644518302526</v>
+        <v>1.079903095274195</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056859619185168</v>
+        <v>1.057326398313075</v>
       </c>
       <c r="J11">
-        <v>1.039002874139611</v>
+        <v>1.074497360990493</v>
       </c>
       <c r="K11">
-        <v>1.052619717925246</v>
+        <v>1.069963947050343</v>
       </c>
       <c r="L11">
-        <v>1.039737396830444</v>
+        <v>1.075281216646645</v>
       </c>
       <c r="M11">
-        <v>1.050906949721715</v>
+        <v>1.083314725557782</v>
       </c>
       <c r="N11">
-        <v>1.040478377396185</v>
+        <v>1.07602327048967</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008019381195581</v>
+        <v>1.067812006983975</v>
       </c>
       <c r="D12">
-        <v>1.037087909412388</v>
+        <v>1.066282601661097</v>
       </c>
       <c r="E12">
-        <v>1.02359926551924</v>
+        <v>1.07154325110588</v>
       </c>
       <c r="F12">
-        <v>1.035006023930676</v>
+        <v>1.079610383513947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05606381409898</v>
+        <v>1.057213902939458</v>
       </c>
       <c r="J12">
-        <v>1.037488181884277</v>
+        <v>1.074234840207082</v>
       </c>
       <c r="K12">
-        <v>1.051537462985838</v>
+        <v>1.069784473034654</v>
       </c>
       <c r="L12">
-        <v>1.038287889224571</v>
+        <v>1.075026677474047</v>
       </c>
       <c r="M12">
-        <v>1.049491949585389</v>
+        <v>1.083065908945479</v>
       </c>
       <c r="N12">
-        <v>1.038961534104111</v>
+        <v>1.075760376896635</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008454828406257</v>
+        <v>1.06788637489282</v>
       </c>
       <c r="D13">
-        <v>1.037367536666535</v>
+        <v>1.066330605923406</v>
       </c>
       <c r="E13">
-        <v>1.023960373043771</v>
+        <v>1.071607358008664</v>
       </c>
       <c r="F13">
-        <v>1.035358676466617</v>
+        <v>1.079673174735627</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056235218157742</v>
+        <v>1.057238047744431</v>
       </c>
       <c r="J13">
-        <v>1.037814296352215</v>
+        <v>1.074291162443132</v>
       </c>
       <c r="K13">
-        <v>1.051770467138617</v>
+        <v>1.069822981366714</v>
       </c>
       <c r="L13">
-        <v>1.038599946772514</v>
+        <v>1.075081286477038</v>
       </c>
       <c r="M13">
-        <v>1.049796558860193</v>
+        <v>1.083119289296682</v>
       </c>
       <c r="N13">
-        <v>1.039288111691998</v>
+        <v>1.07581677911672</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009875494273988</v>
+        <v>1.068130020360654</v>
       </c>
       <c r="D14">
-        <v>1.038280174215328</v>
+        <v>1.066487875399674</v>
       </c>
       <c r="E14">
-        <v>1.025138807328511</v>
+        <v>1.071817390760221</v>
       </c>
       <c r="F14">
-        <v>1.036509613199051</v>
+        <v>1.079878901227026</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056794152133193</v>
+        <v>1.057317105793799</v>
       </c>
       <c r="J14">
-        <v>1.03887821059116</v>
+        <v>1.074475665730402</v>
       </c>
       <c r="K14">
-        <v>1.052530642561872</v>
+        <v>1.069949116423652</v>
       </c>
       <c r="L14">
-        <v>1.039618088055976</v>
+        <v>1.075260180630869</v>
       </c>
       <c r="M14">
-        <v>1.050790472617742</v>
+        <v>1.08329416205584</v>
       </c>
       <c r="N14">
-        <v>1.040353536811196</v>
+        <v>1.07600154441982</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010746191364047</v>
+        <v>1.068280118182911</v>
       </c>
       <c r="D15">
-        <v>1.038839767460079</v>
+        <v>1.066584759001336</v>
       </c>
       <c r="E15">
-        <v>1.025861275603219</v>
+        <v>1.071946784949045</v>
       </c>
       <c r="F15">
-        <v>1.037215294714789</v>
+        <v>1.080005645750532</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057136495771857</v>
+        <v>1.057365774615422</v>
       </c>
       <c r="J15">
-        <v>1.039530222692554</v>
+        <v>1.074589313210496</v>
       </c>
       <c r="K15">
-        <v>1.052996527051405</v>
+        <v>1.070026801546821</v>
       </c>
       <c r="L15">
-        <v>1.040242113826192</v>
+        <v>1.075370375501679</v>
       </c>
       <c r="M15">
-        <v>1.051399704894232</v>
+        <v>1.083401882553577</v>
       </c>
       <c r="N15">
-        <v>1.041006474844561</v>
+        <v>1.076115353292372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.015745605976659</v>
+        <v>1.069153448007667</v>
       </c>
       <c r="D16">
-        <v>1.042056567673354</v>
+        <v>1.067148431050574</v>
       </c>
       <c r="E16">
-        <v>1.030012935995228</v>
+        <v>1.072699705178386</v>
       </c>
       <c r="F16">
-        <v>1.041271535463443</v>
+        <v>1.08074319785932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059098842024242</v>
+        <v>1.057648416504022</v>
       </c>
       <c r="J16">
-        <v>1.043273308855312</v>
+        <v>1.075250318793814</v>
       </c>
       <c r="K16">
-        <v>1.055671269695367</v>
+        <v>1.070478493021144</v>
       </c>
       <c r="L16">
-        <v>1.043825496803489</v>
+        <v>1.076011336498706</v>
       </c>
       <c r="M16">
-        <v>1.054898955312847</v>
+        <v>1.084028492350923</v>
       </c>
       <c r="N16">
-        <v>1.044754876619008</v>
+        <v>1.076777297579436</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.01882358608333</v>
+        <v>1.069701000917812</v>
       </c>
       <c r="D17">
-        <v>1.044040105483498</v>
+        <v>1.06750180451197</v>
       </c>
       <c r="E17">
-        <v>1.032571792459952</v>
+        <v>1.073171810215099</v>
       </c>
       <c r="F17">
-        <v>1.043772462509964</v>
+        <v>1.081205710143373</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060303983429875</v>
+        <v>1.057825155274118</v>
       </c>
       <c r="J17">
-        <v>1.045577137288999</v>
+        <v>1.075664537521849</v>
       </c>
       <c r="K17">
-        <v>1.05731763376187</v>
+        <v>1.070761415250509</v>
       </c>
       <c r="L17">
-        <v>1.046031845660493</v>
+        <v>1.076413026508975</v>
       </c>
       <c r="M17">
-        <v>1.057054191998653</v>
+        <v>1.084421224590208</v>
       </c>
       <c r="N17">
-        <v>1.047061976753323</v>
+        <v>1.077192104545577</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.020598857234957</v>
+        <v>1.070020285871359</v>
       </c>
       <c r="D18">
-        <v>1.045185170261125</v>
+        <v>1.067707848682052</v>
       </c>
       <c r="E18">
-        <v>1.034048614482998</v>
+        <v>1.073447116679814</v>
       </c>
       <c r="F18">
-        <v>1.045216155408515</v>
+        <v>1.08147543820674</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060997950489506</v>
+        <v>1.057928044516949</v>
       </c>
       <c r="J18">
-        <v>1.046905632571333</v>
+        <v>1.075905996777711</v>
       </c>
       <c r="K18">
-        <v>1.058267009682501</v>
+        <v>1.070926291200732</v>
       </c>
       <c r="L18">
-        <v>1.047304413213858</v>
+        <v>1.076647193983297</v>
       </c>
       <c r="M18">
-        <v>1.058297517426434</v>
+        <v>1.084650183009578</v>
       </c>
       <c r="N18">
-        <v>1.048392358651339</v>
+        <v>1.077433906701278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.021200852613484</v>
+        <v>1.070129138105207</v>
       </c>
       <c r="D19">
-        <v>1.045573630583442</v>
+        <v>1.067778092163447</v>
       </c>
       <c r="E19">
-        <v>1.034549564589686</v>
+        <v>1.073540978251016</v>
       </c>
       <c r="F19">
-        <v>1.045705918282996</v>
+        <v>1.08156740053835</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061233082763154</v>
+        <v>1.057963093302025</v>
       </c>
       <c r="J19">
-        <v>1.047356076992918</v>
+        <v>1.075988303232257</v>
       </c>
       <c r="K19">
-        <v>1.058588906979664</v>
+        <v>1.070982484629527</v>
       </c>
       <c r="L19">
-        <v>1.047735941766344</v>
+        <v>1.076727016833662</v>
       </c>
       <c r="M19">
-        <v>1.058719169431432</v>
+        <v>1.08472823238546</v>
       </c>
       <c r="N19">
-        <v>1.048843442755669</v>
+        <v>1.077516330040431</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018495441571131</v>
+        <v>1.069642263372155</v>
       </c>
       <c r="D20">
-        <v>1.043828531336365</v>
+        <v>1.067463898406953</v>
       </c>
       <c r="E20">
-        <v>1.032298890773164</v>
+        <v>1.073121164502541</v>
       </c>
       <c r="F20">
-        <v>1.043505707093331</v>
+        <v>1.081156091892179</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06017561814271</v>
+        <v>1.057806213523591</v>
       </c>
       <c r="J20">
-        <v>1.045331552953338</v>
+        <v>1.075620111058868</v>
       </c>
       <c r="K20">
-        <v>1.057142132903111</v>
+        <v>1.070731075675712</v>
       </c>
       <c r="L20">
-        <v>1.045796622809241</v>
+        <v>1.076369942600578</v>
       </c>
       <c r="M20">
-        <v>1.056824393352705</v>
+        <v>1.084379100122394</v>
       </c>
       <c r="N20">
-        <v>1.046816043659737</v>
+        <v>1.077147614991923</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009458111762713</v>
+        <v>1.068058277058931</v>
       </c>
       <c r="D21">
-        <v>1.038011993178834</v>
+        <v>1.06644156665229</v>
       </c>
       <c r="E21">
-        <v>1.024792542557573</v>
+        <v>1.071755544256414</v>
       </c>
       <c r="F21">
-        <v>1.036171413188162</v>
+        <v>1.079818322066298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056629985749324</v>
+        <v>1.057293833807095</v>
       </c>
       <c r="J21">
-        <v>1.038565647411816</v>
+        <v>1.074421340593186</v>
       </c>
       <c r="K21">
-        <v>1.052307309998389</v>
+        <v>1.069911979223274</v>
       </c>
       <c r="L21">
-        <v>1.03931895863068</v>
+        <v>1.07520750654245</v>
       </c>
       <c r="M21">
-        <v>1.050498449525482</v>
+        <v>1.083242671471236</v>
       </c>
       <c r="N21">
-        <v>1.040040529756285</v>
+        <v>1.075947142134679</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.003576347273728</v>
+        <v>1.067061484606933</v>
       </c>
       <c r="D22">
-        <v>1.034237616061882</v>
+        <v>1.065798119029336</v>
       </c>
       <c r="E22">
-        <v>1.01991727333107</v>
+        <v>1.070896319661534</v>
       </c>
       <c r="F22">
-        <v>1.031411019885278</v>
+        <v>1.078976763372216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054312719612259</v>
+        <v>1.056969871789644</v>
       </c>
       <c r="J22">
-        <v>1.034160369342773</v>
+        <v>1.073666271765002</v>
       </c>
       <c r="K22">
-        <v>1.049160021197728</v>
+        <v>1.069395635478089</v>
       </c>
       <c r="L22">
-        <v>1.035104228449686</v>
+        <v>1.074475429156913</v>
       </c>
       <c r="M22">
-        <v>1.046384885230967</v>
+        <v>1.082527091533012</v>
       </c>
       <c r="N22">
-        <v>1.035628995687093</v>
+        <v>1.075191001022151</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006714286227721</v>
+        <v>1.067589988059565</v>
       </c>
       <c r="D23">
-        <v>1.036250124542226</v>
+        <v>1.066139286656083</v>
       </c>
       <c r="E23">
-        <v>1.022517240465441</v>
+        <v>1.07135186941374</v>
       </c>
       <c r="F23">
-        <v>1.033949414862291</v>
+        <v>1.079422933232038</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055549857441988</v>
+        <v>1.05714178216515</v>
       </c>
       <c r="J23">
-        <v>1.036510733255704</v>
+        <v>1.074066677631266</v>
       </c>
       <c r="K23">
-        <v>1.050839112322967</v>
+        <v>1.069669487254458</v>
       </c>
       <c r="L23">
-        <v>1.037352647089344</v>
+        <v>1.074863632818307</v>
       </c>
       <c r="M23">
-        <v>1.048579093678437</v>
+        <v>1.082906535659054</v>
       </c>
       <c r="N23">
-        <v>1.03798269738637</v>
+        <v>1.075591975510672</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018643777751565</v>
+        <v>1.069668804629009</v>
       </c>
       <c r="D24">
-        <v>1.043924169252524</v>
+        <v>1.067481026768463</v>
       </c>
       <c r="E24">
-        <v>1.03242225171561</v>
+        <v>1.073144049318938</v>
       </c>
       <c r="F24">
-        <v>1.043626288768844</v>
+        <v>1.081178512390875</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060233648539697</v>
+        <v>1.057814773101654</v>
       </c>
       <c r="J24">
-        <v>1.045442569047925</v>
+        <v>1.075640185920824</v>
       </c>
       <c r="K24">
-        <v>1.05722146783861</v>
+        <v>1.070744785280247</v>
       </c>
       <c r="L24">
-        <v>1.045902954129545</v>
+        <v>1.076389410770479</v>
       </c>
       <c r="M24">
-        <v>1.056928271951059</v>
+        <v>1.084398134713426</v>
       </c>
       <c r="N24">
-        <v>1.046927217409911</v>
+        <v>1.077167718362485</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.031707413441091</v>
+        <v>1.072077510029953</v>
       </c>
       <c r="D25">
-        <v>1.052366561920881</v>
+        <v>1.069035200354865</v>
       </c>
       <c r="E25">
-        <v>1.043305370336298</v>
+        <v>1.075221259816905</v>
       </c>
       <c r="F25">
-        <v>1.054270288774331</v>
+        <v>1.083213910693068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065319726162554</v>
+        <v>1.058587921647529</v>
       </c>
       <c r="J25">
-        <v>1.05521286660327</v>
+        <v>1.077460380496658</v>
       </c>
       <c r="K25">
-        <v>1.064202919810398</v>
+        <v>1.071986817777866</v>
       </c>
       <c r="L25">
-        <v>1.055266664383238</v>
+        <v>1.078154843699845</v>
       </c>
       <c r="M25">
-        <v>1.066080741519217</v>
+        <v>1.086124525769187</v>
       </c>
       <c r="N25">
-        <v>1.056711389908454</v>
+        <v>1.078990497823396</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.073995936115403</v>
+        <v>1.041582667654609</v>
       </c>
       <c r="D2">
-        <v>1.070272582048248</v>
+        <v>1.058772443749599</v>
       </c>
       <c r="E2">
-        <v>1.076876138636622</v>
+        <v>1.051556593095971</v>
       </c>
       <c r="F2">
-        <v>1.084835956931483</v>
+        <v>1.062348146878604</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059198335520961</v>
+        <v>1.069127002070167</v>
       </c>
       <c r="J2">
-        <v>1.078907638513878</v>
+        <v>1.062586999832069</v>
       </c>
       <c r="K2">
-        <v>1.072972861239862</v>
+        <v>1.069469489984844</v>
       </c>
       <c r="L2">
-        <v>1.079558917116555</v>
+        <v>1.062341519071574</v>
       </c>
       <c r="M2">
-        <v>1.087497946080979</v>
+        <v>1.073002194476084</v>
       </c>
       <c r="N2">
-        <v>1.080439811113003</v>
+        <v>1.064095995252264</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075387383630167</v>
+        <v>1.048473290429184</v>
       </c>
       <c r="D3">
-        <v>1.071169776382003</v>
+        <v>1.06325310390868</v>
       </c>
       <c r="E3">
-        <v>1.078076691739842</v>
+        <v>1.057326017179951</v>
       </c>
       <c r="F3">
-        <v>1.086012962226143</v>
+        <v>1.068000378701376</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059637956305715</v>
+        <v>1.071760555551198</v>
       </c>
       <c r="J3">
-        <v>1.079955918929432</v>
+        <v>1.067724419627027</v>
       </c>
       <c r="K3">
-        <v>1.073686185543798</v>
+        <v>1.073135899009848</v>
       </c>
       <c r="L3">
-        <v>1.080576121590518</v>
+        <v>1.067274406379882</v>
       </c>
       <c r="M3">
-        <v>1.088493168866402</v>
+        <v>1.077831280932645</v>
       </c>
       <c r="N3">
-        <v>1.081489580206987</v>
+        <v>1.0692407107726</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076287080492588</v>
+        <v>1.052813023436537</v>
       </c>
       <c r="D4">
-        <v>1.071749751949517</v>
+        <v>1.066079164568964</v>
       </c>
       <c r="E4">
-        <v>1.078853072123655</v>
+        <v>1.060964567551154</v>
       </c>
       <c r="F4">
-        <v>1.086774237834576</v>
+        <v>1.071566721685327</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059920766994024</v>
+        <v>1.073408097619092</v>
       </c>
       <c r="J4">
-        <v>1.080633065001921</v>
+        <v>1.07095588586383</v>
       </c>
       <c r="K4">
-        <v>1.074146548587213</v>
+        <v>1.075440488133665</v>
       </c>
       <c r="L4">
-        <v>1.081233286973565</v>
+        <v>1.070378935970098</v>
       </c>
       <c r="M4">
-        <v>1.089136235643914</v>
+        <v>1.080871818430779</v>
       </c>
       <c r="N4">
-        <v>1.082167687904569</v>
+        <v>1.072476766062113</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07666515860288</v>
+        <v>1.054610391516692</v>
       </c>
       <c r="D5">
-        <v>1.071993438808648</v>
+        <v>1.067250489296258</v>
       </c>
       <c r="E5">
-        <v>1.079179355655758</v>
+        <v>1.062472636122102</v>
       </c>
       <c r="F5">
-        <v>1.087094202586794</v>
+        <v>1.073045248475336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060039266045107</v>
+        <v>1.07408773476011</v>
       </c>
       <c r="J5">
-        <v>1.08091746205031</v>
+        <v>1.072293210538088</v>
       </c>
       <c r="K5">
-        <v>1.074339798121822</v>
+        <v>1.076393796091899</v>
       </c>
       <c r="L5">
-        <v>1.081509314385537</v>
+        <v>1.071664123989174</v>
       </c>
       <c r="M5">
-        <v>1.089406365595682</v>
+        <v>1.082130818823464</v>
       </c>
       <c r="N5">
-        <v>1.082452488829387</v>
+        <v>1.073815989890802</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.076728630646252</v>
+        <v>1.05491063044122</v>
       </c>
       <c r="D6">
-        <v>1.072034347035971</v>
+        <v>1.067446199228151</v>
       </c>
       <c r="E6">
-        <v>1.079234133916215</v>
+        <v>1.062724612166362</v>
       </c>
       <c r="F6">
-        <v>1.087147921718549</v>
+        <v>1.073292310599238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060059139456266</v>
+        <v>1.074201102292768</v>
       </c>
       <c r="J6">
-        <v>1.08096519751455</v>
+        <v>1.072516539584059</v>
       </c>
       <c r="K6">
-        <v>1.074372228777632</v>
+        <v>1.076552968656626</v>
       </c>
       <c r="L6">
-        <v>1.081555646316374</v>
+        <v>1.071878769178799</v>
       </c>
       <c r="M6">
-        <v>1.089451709042615</v>
+        <v>1.08234110765535</v>
       </c>
       <c r="N6">
-        <v>1.082500292083462</v>
+        <v>1.074039636089634</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076292132992449</v>
+        <v>1.052837144460689</v>
       </c>
       <c r="D7">
-        <v>1.071753008633482</v>
+        <v>1.066094880696707</v>
       </c>
       <c r="E7">
-        <v>1.078857432356267</v>
+        <v>1.060984801849154</v>
       </c>
       <c r="F7">
-        <v>1.086778513512967</v>
+        <v>1.071586558112603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059922351932949</v>
+        <v>1.073417229308795</v>
       </c>
       <c r="J7">
-        <v>1.080636866206799</v>
+        <v>1.07097383719133</v>
       </c>
       <c r="K7">
-        <v>1.07414913192315</v>
+        <v>1.075453286463745</v>
       </c>
       <c r="L7">
-        <v>1.08123697622446</v>
+        <v>1.070396185907099</v>
       </c>
       <c r="M7">
-        <v>1.089139845976793</v>
+        <v>1.080888715696405</v>
       </c>
       <c r="N7">
-        <v>1.082171494507594</v>
+        <v>1.072494742882557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.074466322073606</v>
+        <v>1.043936908536012</v>
       </c>
       <c r="D8">
-        <v>1.070575911760885</v>
+        <v>1.060302352644674</v>
       </c>
       <c r="E8">
-        <v>1.077281967650727</v>
+        <v>1.05352667195814</v>
       </c>
       <c r="F8">
-        <v>1.085233800240257</v>
+        <v>1.064277836187254</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059347250518186</v>
+        <v>1.070029073505731</v>
       </c>
       <c r="J8">
-        <v>1.07926215201903</v>
+        <v>1.064343071439352</v>
       </c>
       <c r="K8">
-        <v>1.07321418303896</v>
+        <v>1.070723048015453</v>
       </c>
       <c r="L8">
-        <v>1.079902901786248</v>
+        <v>1.064027305463735</v>
       </c>
       <c r="M8">
-        <v>1.087834475848692</v>
+        <v>1.074652215281367</v>
       </c>
       <c r="N8">
-        <v>1.080794828067995</v>
+        <v>1.065854560682653</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.071243745665187</v>
+        <v>1.027272518886777</v>
       </c>
       <c r="D9">
-        <v>1.068497294744742</v>
+        <v>1.049496243674872</v>
       </c>
       <c r="E9">
-        <v>1.0745021656434</v>
+        <v>1.039606556375371</v>
       </c>
       <c r="F9">
-        <v>1.082509216223612</v>
+        <v>1.050651401783592</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.058321129145695</v>
+        <v>1.063598842763731</v>
       </c>
       <c r="J9">
-        <v>1.076830704674656</v>
+        <v>1.051897654314579</v>
       </c>
       <c r="K9">
-        <v>1.071557383224358</v>
+        <v>1.061834261896375</v>
       </c>
       <c r="L9">
-        <v>1.077544056256524</v>
+        <v>1.052088141637271</v>
       </c>
       <c r="M9">
-        <v>1.085527183397322</v>
+        <v>1.062972873910945</v>
       </c>
       <c r="N9">
-        <v>1.078359927789502</v>
+        <v>1.053391469638054</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.069091556501673</v>
+        <v>1.015394989965851</v>
       </c>
       <c r="D10">
-        <v>1.067108486582854</v>
+        <v>1.041830766610628</v>
       </c>
       <c r="E10">
-        <v>1.072646343967482</v>
+        <v>1.029721589120301</v>
       </c>
       <c r="F10">
-        <v>1.080690923017359</v>
+        <v>1.040986826862131</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057628416291614</v>
+        <v>1.05896141273905</v>
       </c>
       <c r="J10">
-        <v>1.075203488046156</v>
+        <v>1.043010842288035</v>
       </c>
       <c r="K10">
-        <v>1.070446500042143</v>
+        <v>1.055483708248478</v>
       </c>
       <c r="L10">
-        <v>1.075965923790539</v>
+        <v>1.043574175226419</v>
       </c>
       <c r="M10">
-        <v>1.083984094112197</v>
+        <v>1.054653489123317</v>
       </c>
       <c r="N10">
-        <v>1.076730400326746</v>
+        <v>1.044492037319099</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.068158672746015</v>
+        <v>1.0100419668169</v>
       </c>
       <c r="D11">
-        <v>1.066506369782714</v>
+        <v>1.038387150396911</v>
       </c>
       <c r="E11">
-        <v>1.071842090794726</v>
+        <v>1.02527692584085</v>
       </c>
       <c r="F11">
-        <v>1.079903095274195</v>
+        <v>1.036644518302526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057326398313075</v>
+        <v>1.056859619185168</v>
       </c>
       <c r="J11">
-        <v>1.074497360990493</v>
+        <v>1.03900287413961</v>
       </c>
       <c r="K11">
-        <v>1.069963947050343</v>
+        <v>1.052619717925246</v>
       </c>
       <c r="L11">
-        <v>1.075281216646645</v>
+        <v>1.039737396830443</v>
       </c>
       <c r="M11">
-        <v>1.083314725557782</v>
+        <v>1.050906949721715</v>
       </c>
       <c r="N11">
-        <v>1.07602327048967</v>
+        <v>1.040478377396183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.067812006983975</v>
+        <v>1.008019381195581</v>
       </c>
       <c r="D12">
-        <v>1.066282601661097</v>
+        <v>1.037087909412389</v>
       </c>
       <c r="E12">
-        <v>1.07154325110588</v>
+        <v>1.02359926551924</v>
       </c>
       <c r="F12">
-        <v>1.079610383513947</v>
+        <v>1.035006023930676</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057213902939458</v>
+        <v>1.05606381409898</v>
       </c>
       <c r="J12">
-        <v>1.074234840207082</v>
+        <v>1.037488181884277</v>
       </c>
       <c r="K12">
-        <v>1.069784473034654</v>
+        <v>1.051537462985839</v>
       </c>
       <c r="L12">
-        <v>1.075026677474047</v>
+        <v>1.038287889224571</v>
       </c>
       <c r="M12">
-        <v>1.083065908945479</v>
+        <v>1.04949194958539</v>
       </c>
       <c r="N12">
-        <v>1.075760376896635</v>
+        <v>1.038961534104111</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06788637489282</v>
+        <v>1.008454828406259</v>
       </c>
       <c r="D13">
-        <v>1.066330605923406</v>
+        <v>1.037367536666536</v>
       </c>
       <c r="E13">
-        <v>1.071607358008664</v>
+        <v>1.023960373043773</v>
       </c>
       <c r="F13">
-        <v>1.079673174735627</v>
+        <v>1.035358676466618</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.057238047744431</v>
+        <v>1.056235218157742</v>
       </c>
       <c r="J13">
-        <v>1.074291162443132</v>
+        <v>1.037814296352216</v>
       </c>
       <c r="K13">
-        <v>1.069822981366714</v>
+        <v>1.051770467138617</v>
       </c>
       <c r="L13">
-        <v>1.075081286477038</v>
+        <v>1.038599946772516</v>
       </c>
       <c r="M13">
-        <v>1.083119289296682</v>
+        <v>1.049796558860194</v>
       </c>
       <c r="N13">
-        <v>1.07581677911672</v>
+        <v>1.039288111692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.068130020360654</v>
+        <v>1.009875494273988</v>
       </c>
       <c r="D14">
-        <v>1.066487875399674</v>
+        <v>1.038280174215328</v>
       </c>
       <c r="E14">
-        <v>1.071817390760221</v>
+        <v>1.025138807328511</v>
       </c>
       <c r="F14">
-        <v>1.079878901227026</v>
+        <v>1.036509613199051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057317105793799</v>
+        <v>1.056794152133194</v>
       </c>
       <c r="J14">
-        <v>1.074475665730402</v>
+        <v>1.038878210591161</v>
       </c>
       <c r="K14">
-        <v>1.069949116423652</v>
+        <v>1.052530642561873</v>
       </c>
       <c r="L14">
-        <v>1.075260180630869</v>
+        <v>1.039618088055976</v>
       </c>
       <c r="M14">
-        <v>1.08329416205584</v>
+        <v>1.050790472617742</v>
       </c>
       <c r="N14">
-        <v>1.07600154441982</v>
+        <v>1.040353536811196</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.068280118182911</v>
+        <v>1.010746191364046</v>
       </c>
       <c r="D15">
-        <v>1.066584759001336</v>
+        <v>1.038839767460078</v>
       </c>
       <c r="E15">
-        <v>1.071946784949045</v>
+        <v>1.025861275603218</v>
       </c>
       <c r="F15">
-        <v>1.080005645750532</v>
+        <v>1.037215294714789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057365774615422</v>
+        <v>1.057136495771856</v>
       </c>
       <c r="J15">
-        <v>1.074589313210496</v>
+        <v>1.039530222692553</v>
       </c>
       <c r="K15">
-        <v>1.070026801546821</v>
+        <v>1.052996527051404</v>
       </c>
       <c r="L15">
-        <v>1.075370375501679</v>
+        <v>1.040242113826191</v>
       </c>
       <c r="M15">
-        <v>1.083401882553577</v>
+        <v>1.051399704894231</v>
       </c>
       <c r="N15">
-        <v>1.076115353292372</v>
+        <v>1.041006474844559</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.069153448007667</v>
+        <v>1.015745605976659</v>
       </c>
       <c r="D16">
-        <v>1.067148431050574</v>
+        <v>1.042056567673353</v>
       </c>
       <c r="E16">
-        <v>1.072699705178386</v>
+        <v>1.030012935995227</v>
       </c>
       <c r="F16">
-        <v>1.08074319785932</v>
+        <v>1.041271535463442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057648416504022</v>
+        <v>1.059098842024243</v>
       </c>
       <c r="J16">
-        <v>1.075250318793814</v>
+        <v>1.043273308855312</v>
       </c>
       <c r="K16">
-        <v>1.070478493021144</v>
+        <v>1.055671269695367</v>
       </c>
       <c r="L16">
-        <v>1.076011336498706</v>
+        <v>1.043825496803488</v>
       </c>
       <c r="M16">
-        <v>1.084028492350923</v>
+        <v>1.054898955312846</v>
       </c>
       <c r="N16">
-        <v>1.076777297579436</v>
+        <v>1.044754876619008</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.069701000917812</v>
+        <v>1.018823586083331</v>
       </c>
       <c r="D17">
-        <v>1.06750180451197</v>
+        <v>1.044040105483498</v>
       </c>
       <c r="E17">
-        <v>1.073171810215099</v>
+        <v>1.032571792459953</v>
       </c>
       <c r="F17">
-        <v>1.081205710143373</v>
+        <v>1.043772462509965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057825155274118</v>
+        <v>1.060303983429875</v>
       </c>
       <c r="J17">
-        <v>1.075664537521849</v>
+        <v>1.045577137289</v>
       </c>
       <c r="K17">
-        <v>1.070761415250509</v>
+        <v>1.05731763376187</v>
       </c>
       <c r="L17">
-        <v>1.076413026508975</v>
+        <v>1.046031845660494</v>
       </c>
       <c r="M17">
-        <v>1.084421224590208</v>
+        <v>1.057054191998654</v>
       </c>
       <c r="N17">
-        <v>1.077192104545577</v>
+        <v>1.047061976753324</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.070020285871359</v>
+        <v>1.020598857234956</v>
       </c>
       <c r="D18">
-        <v>1.067707848682052</v>
+        <v>1.045185170261123</v>
       </c>
       <c r="E18">
-        <v>1.073447116679814</v>
+        <v>1.034048614482996</v>
       </c>
       <c r="F18">
-        <v>1.08147543820674</v>
+        <v>1.045216155408514</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057928044516949</v>
+        <v>1.060997950489504</v>
       </c>
       <c r="J18">
-        <v>1.075905996777711</v>
+        <v>1.046905632571331</v>
       </c>
       <c r="K18">
-        <v>1.070926291200732</v>
+        <v>1.058267009682499</v>
       </c>
       <c r="L18">
-        <v>1.076647193983297</v>
+        <v>1.047304413213857</v>
       </c>
       <c r="M18">
-        <v>1.084650183009578</v>
+        <v>1.058297517426433</v>
       </c>
       <c r="N18">
-        <v>1.077433906701278</v>
+        <v>1.048392358651337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.070129138105207</v>
+        <v>1.021200852613484</v>
       </c>
       <c r="D19">
-        <v>1.067778092163447</v>
+        <v>1.045573630583442</v>
       </c>
       <c r="E19">
-        <v>1.073540978251016</v>
+        <v>1.034549564589686</v>
       </c>
       <c r="F19">
-        <v>1.08156740053835</v>
+        <v>1.045705918282996</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057963093302025</v>
+        <v>1.061233082763154</v>
       </c>
       <c r="J19">
-        <v>1.075988303232257</v>
+        <v>1.047356076992918</v>
       </c>
       <c r="K19">
-        <v>1.070982484629527</v>
+        <v>1.058588906979664</v>
       </c>
       <c r="L19">
-        <v>1.076727016833662</v>
+        <v>1.047735941766344</v>
       </c>
       <c r="M19">
-        <v>1.08472823238546</v>
+        <v>1.058719169431432</v>
       </c>
       <c r="N19">
-        <v>1.077516330040431</v>
+        <v>1.048843442755669</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.069642263372155</v>
+        <v>1.018495441571129</v>
       </c>
       <c r="D20">
-        <v>1.067463898406953</v>
+        <v>1.043828531336363</v>
       </c>
       <c r="E20">
-        <v>1.073121164502541</v>
+        <v>1.032298890773162</v>
       </c>
       <c r="F20">
-        <v>1.081156091892179</v>
+        <v>1.043505707093329</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057806213523591</v>
+        <v>1.060175618142708</v>
       </c>
       <c r="J20">
-        <v>1.075620111058868</v>
+        <v>1.045331552953337</v>
       </c>
       <c r="K20">
-        <v>1.070731075675712</v>
+        <v>1.057142132903109</v>
       </c>
       <c r="L20">
-        <v>1.076369942600578</v>
+        <v>1.045796622809239</v>
       </c>
       <c r="M20">
-        <v>1.084379100122394</v>
+        <v>1.056824393352703</v>
       </c>
       <c r="N20">
-        <v>1.077147614991923</v>
+        <v>1.046816043659736</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.068058277058931</v>
+        <v>1.009458111762714</v>
       </c>
       <c r="D21">
-        <v>1.06644156665229</v>
+        <v>1.038011993178835</v>
       </c>
       <c r="E21">
-        <v>1.071755544256414</v>
+        <v>1.024792542557573</v>
       </c>
       <c r="F21">
-        <v>1.079818322066298</v>
+        <v>1.036171413188163</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057293833807095</v>
+        <v>1.056629985749324</v>
       </c>
       <c r="J21">
-        <v>1.074421340593186</v>
+        <v>1.038565647411817</v>
       </c>
       <c r="K21">
-        <v>1.069911979223274</v>
+        <v>1.052307309998389</v>
       </c>
       <c r="L21">
-        <v>1.07520750654245</v>
+        <v>1.039318958630681</v>
       </c>
       <c r="M21">
-        <v>1.083242671471236</v>
+        <v>1.050498449525483</v>
       </c>
       <c r="N21">
-        <v>1.075947142134679</v>
+        <v>1.040040529756286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.067061484606933</v>
+        <v>1.003576347273728</v>
       </c>
       <c r="D22">
-        <v>1.065798119029336</v>
+        <v>1.034237616061882</v>
       </c>
       <c r="E22">
-        <v>1.070896319661534</v>
+        <v>1.019917273331071</v>
       </c>
       <c r="F22">
-        <v>1.078976763372216</v>
+        <v>1.03141101988528</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056969871789644</v>
+        <v>1.054312719612259</v>
       </c>
       <c r="J22">
-        <v>1.073666271765002</v>
+        <v>1.034160369342773</v>
       </c>
       <c r="K22">
-        <v>1.069395635478089</v>
+        <v>1.049160021197729</v>
       </c>
       <c r="L22">
-        <v>1.074475429156913</v>
+        <v>1.035104228449686</v>
       </c>
       <c r="M22">
-        <v>1.082527091533012</v>
+        <v>1.046384885230968</v>
       </c>
       <c r="N22">
-        <v>1.075191001022151</v>
+        <v>1.035628995687092</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.067589988059565</v>
+        <v>1.006714286227719</v>
       </c>
       <c r="D23">
-        <v>1.066139286656083</v>
+        <v>1.036250124542226</v>
       </c>
       <c r="E23">
-        <v>1.07135186941374</v>
+        <v>1.022517240465439</v>
       </c>
       <c r="F23">
-        <v>1.079422933232038</v>
+        <v>1.03394941486229</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05714178216515</v>
+        <v>1.055549857441987</v>
       </c>
       <c r="J23">
-        <v>1.074066677631266</v>
+        <v>1.036510733255703</v>
       </c>
       <c r="K23">
-        <v>1.069669487254458</v>
+        <v>1.050839112322966</v>
       </c>
       <c r="L23">
-        <v>1.074863632818307</v>
+        <v>1.037352647089342</v>
       </c>
       <c r="M23">
-        <v>1.082906535659054</v>
+        <v>1.048579093678436</v>
       </c>
       <c r="N23">
-        <v>1.075591975510672</v>
+        <v>1.037982697386369</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.069668804629009</v>
+        <v>1.018643777751564</v>
       </c>
       <c r="D24">
-        <v>1.067481026768463</v>
+        <v>1.043924169252524</v>
       </c>
       <c r="E24">
-        <v>1.073144049318938</v>
+        <v>1.03242225171561</v>
       </c>
       <c r="F24">
-        <v>1.081178512390875</v>
+        <v>1.043626288768843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057814773101654</v>
+        <v>1.060233648539697</v>
       </c>
       <c r="J24">
-        <v>1.075640185920824</v>
+        <v>1.045442569047924</v>
       </c>
       <c r="K24">
-        <v>1.070744785280247</v>
+        <v>1.05722146783861</v>
       </c>
       <c r="L24">
-        <v>1.076389410770479</v>
+        <v>1.045902954129545</v>
       </c>
       <c r="M24">
-        <v>1.084398134713426</v>
+        <v>1.056928271951059</v>
       </c>
       <c r="N24">
-        <v>1.077167718362485</v>
+        <v>1.046927217409911</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.072077510029953</v>
+        <v>1.031707413441091</v>
       </c>
       <c r="D25">
-        <v>1.069035200354865</v>
+        <v>1.05236656192088</v>
       </c>
       <c r="E25">
-        <v>1.075221259816905</v>
+        <v>1.043305370336297</v>
       </c>
       <c r="F25">
-        <v>1.083213910693068</v>
+        <v>1.05427028877433</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058587921647529</v>
+        <v>1.065319726162554</v>
       </c>
       <c r="J25">
-        <v>1.077460380496658</v>
+        <v>1.055212866603269</v>
       </c>
       <c r="K25">
-        <v>1.071986817777866</v>
+        <v>1.064202919810398</v>
       </c>
       <c r="L25">
-        <v>1.078154843699845</v>
+        <v>1.055266664383237</v>
       </c>
       <c r="M25">
-        <v>1.086124525769187</v>
+        <v>1.066080741519216</v>
       </c>
       <c r="N25">
-        <v>1.078990497823396</v>
+        <v>1.056711389908453</v>
       </c>
     </row>
   </sheetData>
